--- a/spontbr.xlsx
+++ b/spontbr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\dashboardelectoral\shiny_workshops\Brasil2022\Brasil2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0687604E-DF7A-417F-BADF-3083842122F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD95ECD-2D8C-46D3-B38F-DDA3F6A7B9CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{F0ACFEFA-0531-455C-B1F1-2739ED8B2BD0}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>date</t>
   </si>
@@ -44,38 +44,88 @@
     <t>Jair_Bolsonaro</t>
   </si>
   <si>
-    <t>Segio_Moro</t>
-  </si>
-  <si>
-    <t>Ciro_Gomes</t>
-  </si>
-  <si>
-    <t>Doria</t>
-  </si>
-  <si>
-    <t>Outro</t>
-  </si>
-  <si>
-    <t>BN</t>
-  </si>
-  <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
     <t>Link</t>
+  </si>
+  <si>
+    <t>Datafolha</t>
+  </si>
+  <si>
+    <t>Quaest/Genial</t>
+  </si>
+  <si>
+    <t>IPESPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campaing starts </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First-round </t>
+  </si>
+  <si>
+    <t>https://g1.globo.com/politica/noticia/2021/12/16/datafolha-lula-tem-48percent-no-primeiro-turno-contra-22percent-de-bolsonaro-9percent-de-moro-7percent-de-ciro-e-4percent-de-doria.ghtml</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/01/11201457/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-janeiro.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2021/12/07170347/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-dezembro-2021.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/02/08214004/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-fevereiro.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/03/15184014/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-marco.pdf</t>
+  </si>
+  <si>
+    <t>https://media-blog.genialinvestimentos.com.br/wp-content/uploads/2022/05/10224027/genial-nas-eleicoes_pesquisa-para-presidente-2022_resultado-maio-1.pdf</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-marco-2o-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-abril-1o-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-abril-2a-quinzena/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-avaliacao-presidencial-eleicao-2022-maio-1a-semana/</t>
+  </si>
+  <si>
+    <t>https://ipespe.org.br/pesquisa-ipespe-eleitor-e-favoravel-a-privatizacao-da-petrobras-se-precos-cairem-cenario-eleitoral-segue-estavel/</t>
+  </si>
+  <si>
+    <t>https://revistaforum.com.br/politica/2022/5/26/datafolha-lula-sobe-pontos-na-pesquisa-espontnea-quando-nome-do-candidato-no-citado-117946.html</t>
+  </si>
+  <si>
+    <t>Outro_</t>
+  </si>
+  <si>
+    <t>BN_</t>
+  </si>
+  <si>
+    <t>NR_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,13 +148,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -417,15 +471,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F84F9B-B269-4373-928A-3D9FC92ABCB6}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,31 +493,470 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44546</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C2">
+        <v>0.32</v>
+      </c>
+      <c r="D2">
+        <v>0.18</v>
+      </c>
+      <c r="E2">
+        <v>0.06</v>
+      </c>
+      <c r="F2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.36</v>
+      </c>
+      <c r="H2">
+        <v>3666</v>
+      </c>
+      <c r="I2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44551</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C3">
+        <v>0.23</v>
+      </c>
+      <c r="D3">
+        <v>0.15</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3">
+        <v>0.04</v>
+      </c>
+      <c r="G3">
+        <v>0.54</v>
+      </c>
+      <c r="H3">
+        <v>2037</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44573</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>0.27</v>
+      </c>
+      <c r="D4">
+        <v>0.16</v>
+      </c>
+      <c r="E4">
+        <v>0.02</v>
+      </c>
+      <c r="F4">
+        <v>0.03</v>
+      </c>
+      <c r="G4">
+        <v>0.52</v>
+      </c>
+      <c r="H4">
+        <v>2000</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44598</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D5">
+        <v>0.16</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>0.04</v>
+      </c>
+      <c r="G5">
+        <v>0.48</v>
+      </c>
+      <c r="H5">
+        <v>2000</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44615</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="C6">
+        <v>0.35</v>
+      </c>
+      <c r="D6">
+        <v>0.25</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <v>0.05</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44633</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.27</v>
+      </c>
+      <c r="D7">
+        <v>0.19</v>
+      </c>
+      <c r="E7">
+        <v>0.03</v>
+      </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
+      <c r="G7">
+        <v>0.48</v>
+      </c>
+      <c r="H7">
+        <v>2000</v>
+      </c>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.36</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.09</v>
+      </c>
+      <c r="F8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.22</v>
+      </c>
+      <c r="H8">
+        <v>1000</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44643</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>0.3</v>
+      </c>
+      <c r="D9">
+        <v>0.23</v>
+      </c>
+      <c r="E9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.08</v>
+      </c>
+      <c r="G9">
+        <v>0.32</v>
+      </c>
+      <c r="H9">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44656</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>0.36</v>
+      </c>
+      <c r="D10">
+        <v>0.27</v>
+      </c>
+      <c r="E10">
+        <v>0.09</v>
+      </c>
+      <c r="F10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.21</v>
+      </c>
+      <c r="H10">
+        <v>1000</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44658</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.22</v>
+      </c>
+      <c r="E11">
+        <v>0.02</v>
+      </c>
+      <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
+        <v>0.46</v>
+      </c>
+      <c r="H11">
+        <v>2000</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44671</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>0.38</v>
+      </c>
+      <c r="D12">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E12">
+        <v>0.08</v>
+      </c>
+      <c r="F12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.19</v>
+      </c>
+      <c r="H12">
+        <v>1000</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>44685</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>0.38</v>
+      </c>
+      <c r="D13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.09</v>
+      </c>
+      <c r="F13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G13">
+        <v>0.17</v>
+      </c>
+      <c r="H13">
+        <v>1000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>44689</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D14">
+        <v>0.22</v>
+      </c>
+      <c r="E14">
+        <v>0.02</v>
+      </c>
+      <c r="F14">
+        <v>0.02</v>
+      </c>
+      <c r="G14">
+        <v>0.45</v>
+      </c>
+      <c r="H14">
+        <v>2000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>44789</v>
+      </c>
+      <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>44836</v>
+      </c>
+      <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>44699</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>0.39</v>
+      </c>
+      <c r="D17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.09</v>
+      </c>
+      <c r="G17">
+        <v>0.16</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>44707</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>0.38</v>
+      </c>
+      <c r="D18">
+        <v>0.22</v>
+      </c>
+      <c r="E18">
+        <v>0.03</v>
+      </c>
+      <c r="F18">
+        <v>0.08</v>
+      </c>
+      <c r="G18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H18">
+        <v>2556</v>
+      </c>
+      <c r="I18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1" xr:uid="{889DCD88-8AD6-4CE1-A2F5-BEA290CC78BC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>